--- a/results/I2_N10_T30_C200_0_res.xlsx
+++ b/results/I2_N10_T30_C200_0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1897.65555755897</v>
+        <v>1897.655557558595</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3600.170000076294</v>
+        <v>43200.47899985313</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9839859137774211</v>
+        <v>0.9674530485786998</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.6848712567852</v>
+        <v>11.86391327978516</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.001091799481786</v>
+        <v>3.180133822481745</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1525.640000000405</v>
+        <v>1633.380000000029</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.9199999999999</v>
+        <v>234.18</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,17 +656,6 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -945,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1080,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.419515549359</v>
+        <v>26.67360153163047</v>
       </c>
     </row>
     <row r="5">
@@ -1088,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.34885527085023</v>
+        <v>20.69771054170049</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.60033324079208</v>
+        <v>20.60033324079215</v>
       </c>
     </row>
     <row r="10">
@@ -1128,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.20105939020151</v>
+        <v>24.20105939020148</v>
       </c>
     </row>
     <row r="11">
@@ -1136,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.24588512618077</v>
+        <v>18.05012820934298</v>
       </c>
     </row>
     <row r="12">
@@ -1144,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.61192465059673</v>
+        <v>22.61192465059684</v>
       </c>
     </row>
     <row r="13">
@@ -1182,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,20 +1394,6 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1521,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>109.9450000000044</v>
+        <v>109.9450000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1532,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.5900000000039</v>
+        <v>117.590000000002</v>
       </c>
     </row>
     <row r="9">
@@ -1543,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>113.2700000000062</v>
+        <v>113.2700000000017</v>
       </c>
     </row>
     <row r="10">
@@ -1554,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.1550000000048</v>
+        <v>119.1550000000025</v>
       </c>
     </row>
     <row r="11">
@@ -1565,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>115.8050000000049</v>
+        <v>115.8050000000101</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>225.6049999999987</v>
+        <v>235.7749999999994</v>
       </c>
     </row>
     <row r="13">
@@ -1587,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>217.35</v>
+        <v>229.0249999999976</v>
       </c>
     </row>
     <row r="14">
@@ -1598,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>201.9349999999982</v>
+        <v>213.420000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1609,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>214.6649999999964</v>
+        <v>226.7600000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1620,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>213.1149999999989</v>
+        <v>221.560000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1631,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>46.9199999999994</v>
       </c>
     </row>
     <row r="18">
@@ -1642,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.9049999999952</v>
+        <v>36.1049999999972</v>
       </c>
     </row>
     <row r="19">
@@ -1653,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999389</v>
+        <v>34.91499999999943</v>
       </c>
     </row>
     <row r="20">
@@ -1664,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999309</v>
+        <v>37.48999999999978</v>
       </c>
     </row>
     <row r="21">
@@ -1675,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999534</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1686,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.72999999998679</v>
+        <v>66.7299999999977</v>
       </c>
     </row>
     <row r="23">
@@ -1697,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.47499999998759</v>
+        <v>67.47499999999798</v>
       </c>
     </row>
     <row r="24">
@@ -1719,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>69.72499999998217</v>
+        <v>69.72499999999795</v>
       </c>
     </row>
     <row r="26">
@@ -1730,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>67.39499999998225</v>
+        <v>67.39499999999953</v>
       </c>
     </row>
     <row r="27">
@@ -1741,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>210.3649999999907</v>
+        <v>210.3650000000016</v>
       </c>
     </row>
     <row r="28">
@@ -1752,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>217.0899999999932</v>
+        <v>217.0900000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1763,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>215.0949999999892</v>
+        <v>215.0950000000012</v>
       </c>
     </row>
     <row r="30">
@@ -1774,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>221.3399999999882</v>
+        <v>221.3400000000028</v>
       </c>
     </row>
     <row r="31">
@@ -1785,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>211.5649999999427</v>
+        <v>211.5650000000012</v>
       </c>
     </row>
     <row r="32">
@@ -1796,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1299999999991</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6699999999996</v>
+        <v>148.3449999999974</v>
       </c>
     </row>
     <row r="34">
@@ -1818,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>117.2199999999997</v>
+        <v>128.704999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1829,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.2299999999979</v>
+        <v>146.3249999999988</v>
       </c>
     </row>
     <row r="36">
@@ -1840,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7700000000004</v>
+        <v>134.2149999999998</v>
       </c>
     </row>
     <row r="37">
@@ -1851,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>193.0200000000239</v>
+        <v>193.0199999999984</v>
       </c>
     </row>
     <row r="38">
@@ -1862,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>202.3100000000397</v>
+        <v>202.3100000000005</v>
       </c>
     </row>
     <row r="39">
@@ -1873,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>191.2450000000438</v>
+        <v>191.2450000000032</v>
       </c>
     </row>
     <row r="40">
@@ -1884,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>208.9250000000436</v>
+        <v>208.9250000000007</v>
       </c>
     </row>
     <row r="41">
@@ -1895,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>197.6600000000355</v>
+        <v>197.6600000000101</v>
       </c>
     </row>
     <row r="42">
@@ -1906,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>278.2899999999889</v>
+        <v>278.29</v>
       </c>
     </row>
     <row r="43">
@@ -1928,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>274.9149999999884</v>
+        <v>274.9150000000016</v>
       </c>
     </row>
     <row r="45">
@@ -1939,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>285.1099999999868</v>
+        <v>285.1100000000029</v>
       </c>
     </row>
     <row r="46">
@@ -1950,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>270.4949999999434</v>
+        <v>270.4950000000038</v>
       </c>
     </row>
     <row r="47">
@@ -1961,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>140.4849999999909</v>
+        <v>140.4850000000024</v>
       </c>
     </row>
     <row r="48">
@@ -1972,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>140.769999999993</v>
+        <v>140.7700000000004</v>
       </c>
     </row>
     <row r="49">
@@ -1983,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>142.6849999999887</v>
+        <v>142.6850000000013</v>
       </c>
     </row>
     <row r="50">
@@ -1994,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>148.694999999989</v>
+        <v>148.6950000000024</v>
       </c>
     </row>
     <row r="51">
@@ -2005,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>138.6749999999421</v>
+        <v>138.6750000000018</v>
       </c>
     </row>
     <row r="52">
@@ -2016,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>250.9700000000468</v>
+        <v>250.9699999999973</v>
       </c>
     </row>
     <row r="53">
@@ -2027,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>260.9900000000591</v>
+        <v>260.9899999999989</v>
       </c>
     </row>
     <row r="54">
@@ -2038,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>252.9750000000572</v>
+        <v>252.9750000000028</v>
       </c>
     </row>
     <row r="55">
@@ -2049,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>269.5800000000626</v>
+        <v>269.5799999999995</v>
       </c>
     </row>
     <row r="56">
@@ -2060,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>250.5750000000583</v>
+        <v>250.5750000000091</v>
       </c>
     </row>
     <row r="57">
@@ -2071,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>250.9700000000524</v>
+        <v>250.9699999999973</v>
       </c>
     </row>
     <row r="58">
@@ -2082,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>260.9900000000647</v>
+        <v>260.9899999999989</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>252.9750000000669</v>
+        <v>252.9750000000028</v>
       </c>
     </row>
     <row r="60">
@@ -2104,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>269.5800000000681</v>
+        <v>269.5799999999995</v>
       </c>
     </row>
     <row r="61">
@@ -2115,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>250.5750000000635</v>
+        <v>250.5750000000091</v>
       </c>
     </row>
     <row r="62">
@@ -2126,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>225.6049999999987</v>
+        <v>235.7749999999994</v>
       </c>
     </row>
     <row r="63">
@@ -2137,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>217.35</v>
+        <v>229.0249999999976</v>
       </c>
     </row>
     <row r="64">
@@ -2148,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>201.9349999999982</v>
+        <v>213.420000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2159,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>214.6649999999964</v>
+        <v>226.7600000000001</v>
       </c>
     </row>
     <row r="66">
@@ -2170,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>213.1149999999989</v>
+        <v>221.560000000001</v>
       </c>
     </row>
     <row r="67">
@@ -2181,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>278.2899999999889</v>
+        <v>278.29</v>
       </c>
     </row>
     <row r="68">
@@ -2203,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>274.9149999999884</v>
+        <v>274.9150000000016</v>
       </c>
     </row>
     <row r="70">
@@ -2214,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>285.1099999999868</v>
+        <v>285.1100000000029</v>
       </c>
     </row>
     <row r="71">
@@ -2225,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>270.4949999999434</v>
+        <v>270.4950000000038</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>50.97000000004948</v>
+        <v>50.96999999999726</v>
       </c>
     </row>
     <row r="3">
@@ -2283,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>60.99000000006231</v>
+        <v>60.98999999999893</v>
       </c>
     </row>
     <row r="4">
@@ -2294,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>52.97500000006369</v>
+        <v>52.97500000000274</v>
       </c>
     </row>
     <row r="5">
@@ -2305,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>69.58000000006575</v>
+        <v>69.57999999999947</v>
       </c>
     </row>
     <row r="6">
@@ -2316,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>50.57500000006155</v>
+        <v>50.5750000000091</v>
       </c>
     </row>
     <row r="7">
@@ -2327,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.60499999999874</v>
+        <v>35.77499999999944</v>
       </c>
     </row>
     <row r="8">
@@ -2338,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.35</v>
+        <v>29.02499999999765</v>
       </c>
     </row>
     <row r="9">
@@ -2349,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1.93499999999824</v>
+        <v>13.42000000000095</v>
       </c>
     </row>
     <row r="10">
@@ -2360,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>14.66499999999638</v>
+        <v>26.76000000000007</v>
       </c>
     </row>
     <row r="11">
@@ -2371,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.11499999999887</v>
+        <v>21.560000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2382,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.28999999998888</v>
+        <v>78.28999999999996</v>
       </c>
     </row>
     <row r="13">
@@ -2404,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.91499999998837</v>
+        <v>74.91500000000161</v>
       </c>
     </row>
     <row r="15">
@@ -2415,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>85.10999999998677</v>
+        <v>85.11000000000256</v>
       </c>
     </row>
     <row r="16">
@@ -2426,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>70.49499999994339</v>
+        <v>70.49500000000377</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2594,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2605,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2616,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2627,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2748,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2759,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2770,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2781,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2792,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
